--- a/aircraft_injury_summary.xlsx
+++ b/aircraft_injury_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aero Commander</t>
+          <t>AERO COMMANDER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,19 +480,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aero Commander 500</t>
+          <t>AERO COMMANDER 500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gulfstream Aerospace</t>
+          <t>GULFSTREAM AEROSPACE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G Iv</t>
+          <t>G IV</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -503,19 +503,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gulfstream Aerospace G Iv</t>
+          <t>GULFSTREAM AEROSPACE G IV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gulfstream Aerospace</t>
+          <t>GULFSTREAM AEROSPACE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G-5</t>
+          <t>G-IV</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gulfstream Aerospace G-5</t>
+          <t>GULFSTREAM AEROSPACE G-IV</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G-Iv</t>
+          <t>G-5</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gulfstream Aerospace G-Iv</t>
+          <t>Gulfstream Aerospace G-5</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indus Aviation Inc</t>
+          <t>INDUS AVIATION INC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T-211 Thorpedo</t>
+          <t>T-211 THORPEDO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Indus Aviation Inc T-211 Thorpedo</t>
+          <t>INDUS AVIATION INC T-211 THORPEDO</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mcdonnell Douglas</t>
+          <t>MCDONNELL DOUGLAS HELICOPTER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Md-902</t>
+          <t>369E</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -664,19 +664,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mcdonnell Douglas Md-902</t>
+          <t>MCDONNELL DOUGLAS HELICOPTER 369E</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mcdonnell Douglas Helicopter</t>
+          <t>MD HELICOPTER</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>369E</t>
+          <t>MD 900</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -687,65 +687,65 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mcdonnell Douglas Helicopter 369E</t>
+          <t>MD HELICOPTER MD 900</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Md Helicopter</t>
+          <t>MD Helicopter Inc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Md 900</t>
+          <t>MD 900</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Md Helicopter Md 900</t>
+          <t>MD Helicopter Inc MD 900</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Md Helicopter Inc</t>
+          <t>MD Helicopters Inc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Md 900</t>
+          <t>MD 902</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Md Helicopter Inc Md 900</t>
+          <t>MD Helicopters Inc MD 902</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Md Helicopters Inc</t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Md 902</t>
+          <t>MD-902</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -756,14 +756,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Md Helicopters Inc Md 902</t>
+          <t>McDonnell Douglas MD-902</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Piaggio</t>
+          <t>PIAGGIO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -779,19 +779,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Piaggio P180</t>
+          <t>PIAGGIO P180</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>PIPER</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pa 34</t>
+          <t>PA 34</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -802,19 +802,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Piper Pa 34</t>
+          <t>PIPER PA 34</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>PIPER</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pa 46 350P</t>
+          <t>PA 46 350P</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -825,19 +825,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Piper Pa 46 350P</t>
+          <t>PIPER PA 46 350P</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>PIPER</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pa-23-250</t>
+          <t>PA-23-250</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Piper Pa-23-250</t>
+          <t>PIPER PA-23-250</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pa-31-350</t>
+          <t>PA-31-350</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Piper Pa-31-350</t>
+          <t>Piper PA-31-350</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pa-32R-301T</t>
+          <t>PA-32R-301T</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Piper Pa-32R-301T</t>
+          <t>Piper PA-32R-301T</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pa-46-500Tp</t>
+          <t>PA-46-500TP</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -917,14 +917,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Piper Pa-46-500Tp</t>
+          <t>Piper PA-46-500TP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Raytheon</t>
+          <t>RAYTHEON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -940,65 +940,65 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Raytheon 390</t>
+          <t>RAYTHEON 390</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Raytheon</t>
+          <t>RAYTHEON AIRCRAFT COMPANY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B300</t>
+          <t>400A</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Raytheon B300</t>
+          <t>RAYTHEON AIRCRAFT COMPANY 400A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Raytheon Aircraft Company</t>
+          <t>RAYTHEON AIRCRAFT COMPANY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>400A</t>
+          <t>HAWKER</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Raytheon Aircraft Company 400A</t>
+          <t>RAYTHEON AIRCRAFT COMPANY HAWKER</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raytheon Aircraft Company</t>
+          <t>Raytheon</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C90A</t>
+          <t>B300</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Raytheon Aircraft Company C90A</t>
+          <t>Raytheon B300</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hawker</t>
+          <t>C90A</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Raytheon Aircraft Company Hawker</t>
+          <t>Raytheon Aircraft Company C90A</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Schweizer Aircraft Corp</t>
+          <t>SCHWEIZER AIRCRAFT CORP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1101,19 +1101,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Schweizer Aircraft Corp G-164B</t>
+          <t>SCHWEIZER AIRCRAFT CORP G-164B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Short Bros</t>
+          <t>SHORT BROS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sd3 60 Sherpa</t>
+          <t>SD3 60 SHERPA</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1124,19 +1124,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Short Bros Sd3 60 Sherpa</t>
+          <t>SHORT BROS SD3 60 SHERPA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Swearingen</t>
+          <t>SWEARINGEN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sa226</t>
+          <t>SA226</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1147,19 +1147,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Swearingen Sa226</t>
+          <t>SWEARINGEN SA226</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gulfstream</t>
+          <t>GULFSTREAM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gulfstream150</t>
+          <t>GULFSTREAM150</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1170,19 +1170,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gulfstream Gulfstream150</t>
+          <t>GULFSTREAM GULFSTREAM150</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Eurocopter</t>
+          <t>Eclipse Aviation Corporation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>As 350 B3</t>
+          <t>EA500</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1193,14 +1193,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eurocopter As 350 B3</t>
+          <t>Eclipse Aviation Corporation EA500</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gulfstream</t>
+          <t>GULFSTREAM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gulfstream G150</t>
+          <t>GULFSTREAM G150</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>EMBRAER</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>EMB-500</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cessna 525</t>
+          <t>EMBRAER EMB-500</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Beech</t>
+          <t>AGUSTA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B100</t>
+          <t>A109E</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Beech B100</t>
+          <t>AGUSTA A109E</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Beech</t>
+          <t>AGUSTA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C90A</t>
+          <t>AW-139</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1285,19 +1285,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Beech C90A</t>
+          <t>AGUSTA AW-139</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Air Tractor</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>206L-3</t>
+          <t>AT-401</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1308,19 +1308,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bell 206L-3</t>
+          <t>Air Tractor AT-401</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>BEECH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>707 338C</t>
+          <t>B100</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Boeing 707 338C</t>
+          <t>BEECH B100</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Agusta</t>
+          <t>BELL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aw-139</t>
+          <t>206L-3</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1354,19 +1354,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Agusta Aw-139</t>
+          <t>BELL 206L-3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>BOEING</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>707 338C</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1377,19 +1377,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Boeing 737</t>
+          <t>BOEING 707 338C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bombardier</t>
+          <t>BOEING</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bd100 1A10</t>
+          <t>737</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1400,19 +1400,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bombardier Bd100 1A10</t>
+          <t>BOEING 737</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bombardier</t>
+          <t>BOMBARDIER</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cl-600-2B19</t>
+          <t>BD100 1A10</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1423,19 +1423,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bombardier Cl-600-2B19</t>
+          <t>BOMBARDIER BD100 1A10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bombardier Inc</t>
+          <t>BOMBARDIER</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bd-100-1A10</t>
+          <t>CL-600-2B19</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bombardier Inc Bd-100-1A10</t>
+          <t>BOMBARDIER CL-600-2B19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>BOMBARDIER INC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>172S</t>
+          <t>BD-100-1A10</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cessna 172S</t>
+          <t>BOMBARDIER INC BD-100-1A10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t>Beech</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Emb-500</t>
+          <t>C90A</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1492,19 +1492,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Embraer Emb-500</t>
+          <t>Beech C90A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>402C</t>
+          <t>421</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1515,19 +1515,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cessna 402C</t>
+          <t>CESSNA 421</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>EUROCOPTER</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>AS 350 B3</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1538,19 +1538,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cessna 421</t>
+          <t>EUROCOPTER AS 350 B3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Air Tractor</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>At-401</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1561,19 +1561,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Air Tractor At-401</t>
+          <t>CESSNA 550</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Dassault Aviation</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Falcon 900Ex</t>
+          <t>560</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1584,19 +1584,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Dassault Aviation Falcon 900Ex</t>
+          <t>CESSNA 560</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Agusta</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A109E</t>
+          <t>525</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1607,19 +1607,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Agusta A109E</t>
+          <t>CESSNA 525</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>560 - Xl</t>
+          <t>560XL</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1630,19 +1630,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cessna 560 - Xl</t>
+          <t>CESSNA 560XL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>CIRRUS DESIGN CORP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>560Xl</t>
+          <t>SF50</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1653,19 +1653,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cessna 560Xl</t>
+          <t>CIRRUS DESIGN CORP SF50</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cirrus Design Corp</t>
+          <t>COLUMBIA AIRCRAFT MFG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sf50</t>
+          <t>LC41 550FG</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1676,19 +1676,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cirrus Design Corp Sf50</t>
+          <t>COLUMBIA AIRCRAFT MFG LC41 550FG</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Columbia Aircraft Mfg</t>
+          <t>Cessna</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lc41 550Fg</t>
+          <t>172S</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1699,19 +1699,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Columbia Aircraft Mfg Lc41 550Fg</t>
+          <t>Cessna 172S</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eclipse Aviation Corporation</t>
+          <t>Cessna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ea500</t>
+          <t>402C</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1722,19 +1722,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Eclipse Aviation Corporation Ea500</t>
+          <t>Cessna 402C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>560 - XL</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1745,19 +1745,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cessna 550</t>
+          <t>CESSNA 560 - XL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Dassault-Breguet</t>
+          <t>DASSAULT-BREGUET</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mystere Falcon 900</t>
+          <t>MYSTERE FALCON 900</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1768,19 +1768,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Dassault-Breguet Mystere Falcon 900</t>
+          <t>DASSAULT-BREGUET MYSTERE FALCON 900</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dehavilland</t>
+          <t>DEHAVILLAND</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dhc 2</t>
+          <t>DHC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1791,19 +1791,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Dehavilland Dhc 2</t>
+          <t>DEHAVILLAND DHC 2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dehavilland</t>
+          <t>Dassault Aviation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dhc-8-311</t>
+          <t>Falcon 900EX</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1814,65 +1814,65 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Dehavilland Dhc-8-311</t>
+          <t>Dassault Aviation Falcon 900EX</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ultramagic</t>
+          <t>DeHavilland</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M-105</t>
+          <t>DHC-8-311</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ultramagic M-105</t>
+          <t>DeHavilland DHC-8-311</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Beech</t>
+          <t>CESSNA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Beech 200</t>
+          <t>CESSNA 206</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aerostar International</t>
+          <t>AEROSTAR INTERNATIONAL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rx8</t>
+          <t>RX8</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1883,65 +1883,65 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aerostar International Rx8</t>
+          <t>AEROSTAR INTERNATIONAL RX8</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Beech</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ax9-118</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Head Ax9-118</t>
+          <t>Beech 200</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>AX9-118</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bell 206</t>
+          <t>Head AX9-118</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cessna</t>
+          <t>ULTRAMAGIC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>M-105</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1952,30 +1952,30 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cessna 206</t>
+          <t>ULTRAMAGIC M-105</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ultramagic Sa</t>
+          <t>BELL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T210</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
         <v>2</v>
       </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ultramagic Sa T210</t>
+          <t>BELL 206</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2005,12 +2005,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>PIPER AIRCRAFT, INC.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ax8 88</t>
+          <t>PA-31</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2021,19 +2021,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Head Ax8 88</t>
+          <t>PIPER AIRCRAFT, INC. PA-31</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Piper Aircraft, Inc.</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pa-31</t>
+          <t>AX8 88</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2044,28 +2044,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Piper Aircraft, Inc. Pa-31</t>
+          <t>Head AX8 88</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>ULTRAMAGIC SA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>T210</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ULTRAMAGIC SA T210</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>E135 Legacy</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C72" t="n">
         <v>154</v>
       </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>Embraer E135 Legacy</t>
         </is>
